--- a/TestData/LV_T1693_ValidationsToBeCompletedBeforeFROpportunityIsApproved.xlsx
+++ b/TestData/LV_T1693_ValidationsToBeCompletedBeforeFROpportunityIsApproved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF7A19-0568-4B48-8B9C-F91BAA1E3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE4998-7C8E-4EB1-AAC0-D9EB3745C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -329,13 +329,13 @@
     <t>Eric Winthrop</t>
   </si>
   <si>
-    <t>Items to complete:Info--&gt;Details--&gt;General: Client Ownership is required.Info--&gt;Details--&gt;General: Subject's Ownership is required.Info--&gt;Details--&gt;Opportunity Description: Opportunity Description is required.Marketing--&gt;Information: Client Description is required.Marketing--&gt;Information: Select \"Total Debt(MM) Confirmed\" checkbox to confirm Total Debt is most up to date.Marketing--&gt;Information: Total Debt HL represents(MM), input zero if not applicable.Fees &amp; Financials--&gt;Estimated Fees: Retainer is required. (Input zero if there's no Retainer fee.)Fees &amp; Financials--&gt;Estimated Fees: Progress/Monthly Fee is required.Fees &amp; Financials--&gt;Estimated Fees: Contingent Fee is required.Client/Subject &amp; Referral--&gt;Referral Info: Referral Type is required.Client/Subject &amp; Referral--&gt;Referral Info: Legal Advisor to Company is required.Client/Subject &amp; Referral--&gt;Referral Info: Legal Advisor to HL Client Group is required.Internal Team: Team must include the following roles: Initiator, Seller, Principal, Manager, Associate(Optional), Analyst(Optional).Compliance &amp; Legal--&gt;Legal Matters: Confidentiality Agreement is required.Compliance &amp; Legal--&gt;Conflicts Check: A Conflicts Check was completed more than 30 days ago. A new Conflicts Check must be completed.Info--&gt;Administration: Estimated Close Date is required.Info--&gt;Administration: "Women Led" is required. Please update this field with the correct valueInfo--&gt;Administration: Date Engaged - Date of Executed Retainer or similar document.Opportunity Contacts - Add at least one Primary Opportunity Contact.Opportunity Contacts - Add at least one Billing Contact.</t>
-  </si>
-  <si>
     <t>IndustryGroup/HLSector</t>
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Items to complete:Info--&gt;Details--&gt;General: Client Ownership is required.Info--&gt;Details--&gt;General: Subject's Ownership is required.Info--&gt;Details--&gt;Opportunity Description: Opportunity Description is required.Marketing--&gt;Information: Client Description is required.Marketing--&gt;Information: Select \"Total Debt(MM) Confirmed\" checkbox to confirm Total Debt is most up to date.Marketing--&gt;Information: Total Debt HL represents(MM), input zero if not applicable.Fees &amp; Financials--&gt;Estimated Fees: Retainer is required. (Input zero if there's no Retainer fee.)Fees &amp; Financials--&gt;Estimated Fees: Progress/Monthly Fee is required.Fees &amp; Financials--&gt;Estimated Fees: Contingent Fee is required.KYC/Client/Subject/Referral--&gt;Referral Info: Referral Type is required.KYC/Client/Subject/Referral--&gt;Referral Info: Legal Advisor to Company is required.KYC/Client/Subject/Referral--&gt;Referral Info: Legal Advisor to HL Client Group is required.Internal Team: Team must include the following roles: Initiator, Seller, Principal, Manager, Associate(Optional), Analyst(Optional).Compliance &amp; Legal--&gt;Legal Matters: Confidentiality Agreement is required.Compliance &amp; Legal--&gt;Conflicts Check: A Conflicts Check was completed more than 30 days ago. A new Conflicts Check must be completed.Info--&gt;Administration: Location where Benefit is to be Provided is required.Info--&gt;Administration: Estimated Close Date is required.Pitches/Mandate Awards: A Pitch/Mandate's Outcome is required.Info--&gt;Administration: "Women Led" is required. Please update this field with the correct valueInfo--&gt;Administration: Date Engaged - Date of Executed Retainer or similar document.Opportunity Contacts - Add at least one Primary Opportunity Contact.Opportunity Contacts - Add at least one Billing Contact.</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94339ED7-FD87-4B3E-A3E9-88C21A2B49CE}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="2" spans="1:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
